--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -1444,12 +1444,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Michela</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
